--- a/log/c660_op_log.xlsx
+++ b/log/c660_op_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Density_Feed Properties</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>test001</t>
+  </si>
+  <si>
+    <t>98</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,6 +480,41 @@
         <v>90.28765869140625</v>
       </c>
     </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.8764194250106812</v>
+      </c>
+      <c r="C3">
+        <v>0.5692569017410278</v>
+      </c>
+      <c r="D3">
+        <v>0.8550279140472412</v>
+      </c>
+      <c r="E3">
+        <v>0.8836973905563354</v>
+      </c>
+      <c r="F3">
+        <v>0.8705692291259766</v>
+      </c>
+      <c r="G3">
+        <v>147.6209869384766</v>
+      </c>
+      <c r="H3">
+        <v>13.99580764770508</v>
+      </c>
+      <c r="I3">
+        <v>13.524827003479</v>
+      </c>
+      <c r="J3">
+        <v>86.71365356445312</v>
+      </c>
+      <c r="K3">
+        <v>90.29151916503906</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log/c660_op_log.xlsx
+++ b/log/c660_op_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Density_Feed Properties</t>
   </si>
@@ -46,10 +46,7 @@
     <t>Benzene Column C660 Operation_Column Temp Profile_C660 Tray 23 (Control)_oC</t>
   </si>
   <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>98</t>
+    <t>20210123</t>
   </si>
 </sst>
 </file>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,69 +447,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.8764114379882812</v>
+        <v>0.8770674467086792</v>
       </c>
       <c r="C2">
-        <v>0.5667766928672791</v>
+        <v>0.5811052918434143</v>
       </c>
       <c r="D2">
-        <v>0.856259286403656</v>
+        <v>0.8497627377510071</v>
       </c>
       <c r="E2">
-        <v>0.8836973905563354</v>
+        <v>0.883716881275177</v>
       </c>
       <c r="F2">
-        <v>0.8705616593360901</v>
+        <v>0.870448112487793</v>
       </c>
       <c r="G2">
-        <v>147.6707153320312</v>
+        <v>119.6789627075195</v>
       </c>
       <c r="H2">
-        <v>14.03489589691162</v>
+        <v>11.20778751373291</v>
       </c>
       <c r="I2">
-        <v>13.5629940032959</v>
+        <v>10.90530014038086</v>
       </c>
       <c r="J2">
-        <v>86.71664428710938</v>
+        <v>86.51419830322266</v>
       </c>
       <c r="K2">
-        <v>90.28765869140625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0.8764194250106812</v>
-      </c>
-      <c r="C3">
-        <v>0.5692569017410278</v>
-      </c>
-      <c r="D3">
-        <v>0.8550279140472412</v>
-      </c>
-      <c r="E3">
-        <v>0.8836973905563354</v>
-      </c>
-      <c r="F3">
-        <v>0.8705692291259766</v>
-      </c>
-      <c r="G3">
-        <v>147.6209869384766</v>
-      </c>
-      <c r="H3">
-        <v>13.99580764770508</v>
-      </c>
-      <c r="I3">
-        <v>13.524827003479</v>
-      </c>
-      <c r="J3">
-        <v>86.71365356445312</v>
-      </c>
-      <c r="K3">
-        <v>90.29151916503906</v>
+        <v>89.49392700195312</v>
       </c>
     </row>
   </sheetData>

--- a/log/c660_op_log.xlsx
+++ b/log/c660_op_log.xlsx
@@ -1,78 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Density_Feed Properties</t>
-  </si>
-  <si>
-    <t>Density_Vent Gas Production Rate and Composition</t>
-  </si>
-  <si>
-    <t>Density_Distillate (Benzene Drag) Production Rate and Composition</t>
-  </si>
-  <si>
-    <t>Density_Sidedraw (Benzene )Production Rate and Composition</t>
-  </si>
-  <si>
-    <t>Density_Bottoms Production Rate and Composition</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Operation_Yield Summary_Reflux Rate_m3/hr</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Operation_Heat Duty_Condenser Heat Duty_Mkcal/hr</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Operation_Heat Duty_Reboiler Heat Duty_Mkcal/hr</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Operation_Column Temp Profile_C660 Tray 6 (SD &amp; Control)_oC</t>
-  </si>
-  <si>
-    <t>Benzene Column C660 Operation_Column Temp Profile_C660 Tray 23 (Control)_oC</t>
-  </si>
-  <si>
-    <t>20210123</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -403,81 +420,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Density_Feed Properties</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Density_Vent Gas Production Rate and Composition</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Density_Distillate (Benzene Drag) Production Rate and Composition</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Density_Sidedraw (Benzene )Production Rate and Composition</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Density_Bottoms Production Rate and Composition</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Benzene Column C660 Operation_Yield Summary_Reflux Rate_m3/hr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Benzene Column C660 Operation_Heat Duty_Condenser Heat Duty_Mkcal/hr</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Benzene Column C660 Operation_Heat Duty_Reboiler Heat Duty_Mkcal/hr</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Benzene Column C660 Operation_Column Temp Profile_C660 Tray 6 (SD &amp; Control)_oC</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Benzene Column C660 Operation_Column Temp Profile_C660 Tray 23 (Control)_oC</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0.8770674467086792</v>
-      </c>
-      <c r="C2">
-        <v>0.5811052918434143</v>
-      </c>
-      <c r="D2">
-        <v>0.8497627377510071</v>
-      </c>
-      <c r="E2">
-        <v>0.883716881275177</v>
-      </c>
-      <c r="F2">
-        <v>0.870448112487793</v>
-      </c>
-      <c r="G2">
-        <v>119.6789627075195</v>
-      </c>
-      <c r="H2">
-        <v>11.20778751373291</v>
-      </c>
-      <c r="I2">
-        <v>10.90530014038086</v>
-      </c>
-      <c r="J2">
-        <v>86.51419830322266</v>
-      </c>
-      <c r="K2">
-        <v>89.49392700195312</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.876493513584137</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5632947683334351</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.863828718662262</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8836941719055176</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.87073814868927</v>
+      </c>
+      <c r="G2" t="n">
+        <v>86.93124389648438</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.474737167358398</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.038998603820801</v>
+      </c>
+      <c r="J2" t="n">
+        <v>86.33749389648438</v>
+      </c>
+      <c r="K2" t="n">
+        <v>88.84513092041016</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/log/c660_op_log.xlsx
+++ b/log/c660_op_log.xlsx
@@ -488,38 +488,38 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.876493513584137</v>
+        <v>0.8768729567527771</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5632947683334351</v>
+        <v>0.5382382869720459</v>
       </c>
       <c r="D2" t="n">
-        <v>0.863828718662262</v>
+        <v>0.8707176446914673</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8836941719055176</v>
+        <v>0.8837072253227234</v>
       </c>
       <c r="F2" t="n">
-        <v>0.87073814868927</v>
+        <v>0.8707398176193237</v>
       </c>
       <c r="G2" t="n">
-        <v>86.93124389648438</v>
+        <v>81.83633422851562</v>
       </c>
       <c r="H2" t="n">
-        <v>8.474737167358398</v>
+        <v>8.099781036376953</v>
       </c>
       <c r="I2" t="n">
-        <v>8.038998603820801</v>
+        <v>7.682899951934814</v>
       </c>
       <c r="J2" t="n">
-        <v>86.33749389648438</v>
+        <v>86.31614685058594</v>
       </c>
       <c r="K2" t="n">
-        <v>88.84513092041016</v>
+        <v>88.60488891601562</v>
       </c>
     </row>
   </sheetData>

--- a/log/c660_op_log.xlsx
+++ b/log/c660_op_log.xlsx
@@ -488,38 +488,38 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8768729567527771</v>
+        <v>0.8764979839324951</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5382382869720459</v>
+        <v>0.5605244040489197</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8707176446914673</v>
+        <v>0.8648582696914673</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8837072253227234</v>
+        <v>0.8836954236030579</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8707398176193237</v>
+        <v>0.8707399964332581</v>
       </c>
       <c r="G2" t="n">
-        <v>81.83633422851562</v>
+        <v>86.64286804199219</v>
       </c>
       <c r="H2" t="n">
-        <v>8.099781036376953</v>
+        <v>8.461791038513184</v>
       </c>
       <c r="I2" t="n">
-        <v>7.682899951934814</v>
+        <v>8.023092269897461</v>
       </c>
       <c r="J2" t="n">
-        <v>86.31614685058594</v>
+        <v>86.33681488037109</v>
       </c>
       <c r="K2" t="n">
-        <v>88.60488891601562</v>
+        <v>88.83335876464844</v>
       </c>
     </row>
   </sheetData>

--- a/log/c660_op_log.xlsx
+++ b/log/c660_op_log.xlsx
@@ -488,38 +488,38 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>8888</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8764979839324951</v>
+        <v>0.8775767087936401</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5605244040489197</v>
+        <v>0.5913012027740479</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8648582696914673</v>
+        <v>0.8346534967422485</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8836954236030579</v>
+        <v>0.8836890459060669</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8707399964332581</v>
+        <v>0.8699526786804199</v>
       </c>
       <c r="G2" t="n">
-        <v>86.64286804199219</v>
+        <v>125.6199264526367</v>
       </c>
       <c r="H2" t="n">
-        <v>8.461791038513184</v>
+        <v>11.02944660186768</v>
       </c>
       <c r="I2" t="n">
-        <v>8.023092269897461</v>
+        <v>10.68390846252441</v>
       </c>
       <c r="J2" t="n">
-        <v>86.33681488037109</v>
+        <v>86.50836181640625</v>
       </c>
       <c r="K2" t="n">
-        <v>88.83335876464844</v>
+        <v>89.41301727294922</v>
       </c>
     </row>
   </sheetData>

--- a/log/c660_op_log.xlsx
+++ b/log/c660_op_log.xlsx
@@ -488,38 +488,38 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>8888</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8775767087936401</v>
+        <v>0.8752250075340271</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5913012027740479</v>
+        <v>0.5307251811027527</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8346534967422485</v>
+        <v>0.8723469376564026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8836890459060669</v>
+        <v>0.8837446570396423</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8699526786804199</v>
+        <v>0.8707650899887085</v>
       </c>
       <c r="G2" t="n">
-        <v>125.6199264526367</v>
+        <v>161.5579986572266</v>
       </c>
       <c r="H2" t="n">
-        <v>11.02944660186768</v>
+        <v>16.57350540161133</v>
       </c>
       <c r="I2" t="n">
-        <v>10.68390846252441</v>
+        <v>16.20272445678711</v>
       </c>
       <c r="J2" t="n">
-        <v>86.50836181640625</v>
+        <v>86.89112091064453</v>
       </c>
       <c r="K2" t="n">
-        <v>89.41301727294922</v>
+        <v>91.86820220947266</v>
       </c>
     </row>
   </sheetData>

--- a/log/c660_op_log.xlsx
+++ b/log/c660_op_log.xlsx
@@ -488,38 +488,38 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8752250075340271</v>
+        <v>0.8751366138458252</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5307251811027527</v>
+        <v>0.5911913514137268</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8723469376564026</v>
+        <v>0.8349162340164185</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8837446570396423</v>
+        <v>0.8836848139762878</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8707650899887085</v>
+        <v>0.8707209825515747</v>
       </c>
       <c r="G2" t="n">
-        <v>161.5579986572266</v>
+        <v>179.6409759521484</v>
       </c>
       <c r="H2" t="n">
-        <v>16.57350540161133</v>
+        <v>16.07978248596191</v>
       </c>
       <c r="I2" t="n">
-        <v>16.20272445678711</v>
+        <v>16.27057075500488</v>
       </c>
       <c r="J2" t="n">
-        <v>86.89112091064453</v>
+        <v>86.91107940673828</v>
       </c>
       <c r="K2" t="n">
-        <v>91.86820220947266</v>
+        <v>92.13060760498047</v>
       </c>
     </row>
   </sheetData>

--- a/log/c660_op_log.xlsx
+++ b/log/c660_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,40 +486,110 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>123</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8751366138458252</v>
+        <v>0.8751709461212158</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5911913514137268</v>
+        <v>0.5555441975593567</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8349162340164185</v>
+        <v>0.8660626411437988</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8836848139762878</v>
+        <v>0.8837409019470215</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8707209825515747</v>
+        <v>0.8707622289657593</v>
       </c>
       <c r="G2" t="n">
-        <v>179.6409759521484</v>
+        <v>169.1239318847656</v>
       </c>
       <c r="H2" t="n">
-        <v>16.07978248596191</v>
+        <v>16.59475326538086</v>
       </c>
       <c r="I2" t="n">
-        <v>16.27057075500488</v>
+        <v>16.41767501831055</v>
       </c>
       <c r="J2" t="n">
-        <v>86.91107940673828</v>
+        <v>86.93653106689453</v>
       </c>
       <c r="K2" t="n">
-        <v>92.13060760498047</v>
+        <v>92.01915740966797</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8751709461212158</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5555441975593567</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8660626411437988</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8837409019470215</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8707622289657593</v>
+      </c>
+      <c r="G3" t="n">
+        <v>169.1239318847656</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16.59475326538086</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16.41767501831055</v>
+      </c>
+      <c r="J3" t="n">
+        <v>86.93653106689453</v>
+      </c>
+      <c r="K3" t="n">
+        <v>92.01915740966797</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8751709461212158</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5555441975593567</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8660626411437988</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8837409019470215</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8707622289657593</v>
+      </c>
+      <c r="G4" t="n">
+        <v>169.1239318847656</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16.59475326538086</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16.41767501831055</v>
+      </c>
+      <c r="J4" t="n">
+        <v>86.93653106689453</v>
+      </c>
+      <c r="K4" t="n">
+        <v>92.01915740966797</v>
       </c>
     </row>
   </sheetData>

--- a/log/c660_op_log.xlsx
+++ b/log/c660_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,10 +556,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>456</v>
       </c>
       <c r="B4" t="n">
         <v>0.8751709461212158</v>
@@ -590,6 +588,80 @@
       </c>
       <c r="K4" t="n">
         <v>92.01915740966797</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8751709461212158</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5555441975593567</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8660626411437988</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8837409019470215</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8707622289657593</v>
+      </c>
+      <c r="G5" t="n">
+        <v>169.1239318847656</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16.59475326538086</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16.41767501831055</v>
+      </c>
+      <c r="J5" t="n">
+        <v>86.93653106689453</v>
+      </c>
+      <c r="K5" t="n">
+        <v>92.01915740966797</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8751366138458252</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5911913514137268</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8349162340164185</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8836848139762878</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8707209825515747</v>
+      </c>
+      <c r="G6" t="n">
+        <v>179.6409759521484</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16.07978248596191</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16.27057075500488</v>
+      </c>
+      <c r="J6" t="n">
+        <v>86.91107940673828</v>
+      </c>
+      <c r="K6" t="n">
+        <v>92.13060760498047</v>
       </c>
     </row>
   </sheetData>

--- a/log/c660_op_log.xlsx
+++ b/log/c660_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,6 +664,80 @@
         <v>92.13060760498047</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8752631545066833</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5897498726844788</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.837644100189209</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8836870193481445</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8707107901573181</v>
+      </c>
+      <c r="G7" t="n">
+        <v>148.128173828125</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13.14312839508057</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13.35710144042969</v>
+      </c>
+      <c r="J7" t="n">
+        <v>86.67254638671875</v>
+      </c>
+      <c r="K7" t="n">
+        <v>91.16632843017578</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.875263512134552</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5897493362426758</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8376448750495911</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8836870193481445</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8707107305526733</v>
+      </c>
+      <c r="G8" t="n">
+        <v>148.1097259521484</v>
+      </c>
+      <c r="H8" t="n">
+        <v>13.14150238037109</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13.35542774200439</v>
+      </c>
+      <c r="J8" t="n">
+        <v>86.67243957519531</v>
+      </c>
+      <c r="K8" t="n">
+        <v>91.16508483886719</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c660_op_log.xlsx
+++ b/log/c660_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,6 +738,80 @@
         <v>91.16508483886719</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8752631545066833</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5897498726844788</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.837644100189209</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8836870193481445</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8707107901573181</v>
+      </c>
+      <c r="G9" t="n">
+        <v>148.128173828125</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13.14312839508057</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13.35710144042969</v>
+      </c>
+      <c r="J9" t="n">
+        <v>86.67254638671875</v>
+      </c>
+      <c r="K9" t="n">
+        <v>91.16632843017578</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.875263512134552</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5897493362426758</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8376448750495911</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8836870193481445</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8707107305526733</v>
+      </c>
+      <c r="G10" t="n">
+        <v>148.1097259521484</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13.14150238037109</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13.35542774200439</v>
+      </c>
+      <c r="J10" t="n">
+        <v>86.67243957519531</v>
+      </c>
+      <c r="K10" t="n">
+        <v>91.16508483886719</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c660_op_log.xlsx
+++ b/log/c660_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,6 +812,80 @@
         <v>91.16508483886719</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8752631545066833</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5897498726844788</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.837644100189209</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8836870193481445</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8707107901573181</v>
+      </c>
+      <c r="G11" t="n">
+        <v>148.128173828125</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13.14312839508057</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13.35710144042969</v>
+      </c>
+      <c r="J11" t="n">
+        <v>86.67254638671875</v>
+      </c>
+      <c r="K11" t="n">
+        <v>91.16632843017578</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.875263512134552</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5897493362426758</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8376448750495911</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8836870193481445</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8707107305526733</v>
+      </c>
+      <c r="G12" t="n">
+        <v>148.1097259521484</v>
+      </c>
+      <c r="H12" t="n">
+        <v>13.14150238037109</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13.35542774200439</v>
+      </c>
+      <c r="J12" t="n">
+        <v>86.67243957519531</v>
+      </c>
+      <c r="K12" t="n">
+        <v>91.16508483886719</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c660_op_log.xlsx
+++ b/log/c660_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -886,6 +886,228 @@
         <v>91.16508483886719</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8752631545066833</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5897498726844788</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.837644100189209</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8836870193481445</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8707107901573181</v>
+      </c>
+      <c r="G13" t="n">
+        <v>148.128173828125</v>
+      </c>
+      <c r="H13" t="n">
+        <v>13.14312839508057</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13.35710144042969</v>
+      </c>
+      <c r="J13" t="n">
+        <v>86.67254638671875</v>
+      </c>
+      <c r="K13" t="n">
+        <v>91.16632843017578</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.875263512134552</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5897493362426758</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8376448750495911</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8836870193481445</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8707107305526733</v>
+      </c>
+      <c r="G14" t="n">
+        <v>148.1097259521484</v>
+      </c>
+      <c r="H14" t="n">
+        <v>13.14150238037109</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13.35542774200439</v>
+      </c>
+      <c r="J14" t="n">
+        <v>86.67243957519531</v>
+      </c>
+      <c r="K14" t="n">
+        <v>91.16508483886719</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.875263512134552</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5897493362426758</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8376448750495911</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8836870193481445</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8707107305526733</v>
+      </c>
+      <c r="G15" t="n">
+        <v>148.1097259521484</v>
+      </c>
+      <c r="H15" t="n">
+        <v>13.14150238037109</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13.35542774200439</v>
+      </c>
+      <c r="J15" t="n">
+        <v>86.67243957519531</v>
+      </c>
+      <c r="K15" t="n">
+        <v>91.16508483886719</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.875263512134552</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5897493362426758</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8376448750495911</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8836870193481445</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8707107305526733</v>
+      </c>
+      <c r="G16" t="n">
+        <v>148.1097259521484</v>
+      </c>
+      <c r="H16" t="n">
+        <v>13.14150238037109</v>
+      </c>
+      <c r="I16" t="n">
+        <v>13.35542774200439</v>
+      </c>
+      <c r="J16" t="n">
+        <v>86.67243957519531</v>
+      </c>
+      <c r="K16" t="n">
+        <v>91.16508483886719</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>sim01</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8752631545066833</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5897498726844788</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.837644100189209</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8836870193481445</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8707107901573181</v>
+      </c>
+      <c r="G17" t="n">
+        <v>148.128173828125</v>
+      </c>
+      <c r="H17" t="n">
+        <v>13.14312839508057</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13.35710144042969</v>
+      </c>
+      <c r="J17" t="n">
+        <v>86.67254638671875</v>
+      </c>
+      <c r="K17" t="n">
+        <v>91.16632843017578</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>real01</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8768362998962402</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5923614501953125</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8325414657592773</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8836832642555237</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8699749112129211</v>
+      </c>
+      <c r="G18" t="n">
+        <v>209.4469146728516</v>
+      </c>
+      <c r="H18" t="n">
+        <v>18.8407096862793</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18.64591789245605</v>
+      </c>
+      <c r="J18" t="n">
+        <v>87.17235565185547</v>
+      </c>
+      <c r="K18" t="n">
+        <v>92.13583374023438</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c660_op_log.xlsx
+++ b/log/c660_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1108,6 +1108,154 @@
         <v>92.13583374023438</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8773941993713379</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5309236645698547</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8712657690048218</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8837120532989502</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8707269430160522</v>
+      </c>
+      <c r="G19" t="n">
+        <v>98.52438354492188</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9.817700386047363</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9.127378463745117</v>
+      </c>
+      <c r="J19" t="n">
+        <v>87.03529197867751</v>
+      </c>
+      <c r="K19" t="n">
+        <v>88.35263062</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8773941993713379</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5309236645698547</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8712657690048218</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8837120532989502</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8707269430160522</v>
+      </c>
+      <c r="G20" t="n">
+        <v>98.52438354492188</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9.817700386047363</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9.127378463745117</v>
+      </c>
+      <c r="J20" t="n">
+        <v>87.39423353424777</v>
+      </c>
+      <c r="K20" t="n">
+        <v>89.00241570966803</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8773941993713379</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5309236645698547</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8712657690048218</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8837120532989502</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8707269430160522</v>
+      </c>
+      <c r="G21" t="n">
+        <v>98.52438354492188</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9.817700386047363</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9.127378463745117</v>
+      </c>
+      <c r="J21" t="n">
+        <v>87.302975880513</v>
+      </c>
+      <c r="K21" t="n">
+        <v>89.38104873518508</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8773941993713379</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5309236645698547</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8712657690048218</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8837120532989502</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8707269430160522</v>
+      </c>
+      <c r="G22" t="n">
+        <v>98.52438354492188</v>
+      </c>
+      <c r="H22" t="n">
+        <v>9.817700386047363</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9.127378463745117</v>
+      </c>
+      <c r="J22" t="n">
+        <v>87.35197193416457</v>
+      </c>
+      <c r="K22" t="n">
+        <v>91.0419418611053</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c660_op_log.xlsx
+++ b/log/c660_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1108,154 +1108,6 @@
         <v>92.13583374023438</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.8773941993713379</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5309236645698547</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.8712657690048218</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.8837120532989502</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.8707269430160522</v>
-      </c>
-      <c r="G19" t="n">
-        <v>98.52438354492188</v>
-      </c>
-      <c r="H19" t="n">
-        <v>9.817700386047363</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9.127378463745117</v>
-      </c>
-      <c r="J19" t="n">
-        <v>87.03529197867751</v>
-      </c>
-      <c r="K19" t="n">
-        <v>88.35263062</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.8773941993713379</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5309236645698547</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.8712657690048218</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.8837120532989502</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.8707269430160522</v>
-      </c>
-      <c r="G20" t="n">
-        <v>98.52438354492188</v>
-      </c>
-      <c r="H20" t="n">
-        <v>9.817700386047363</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9.127378463745117</v>
-      </c>
-      <c r="J20" t="n">
-        <v>87.39423353424777</v>
-      </c>
-      <c r="K20" t="n">
-        <v>89.00241570966803</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.8773941993713379</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5309236645698547</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.8712657690048218</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.8837120532989502</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.8707269430160522</v>
-      </c>
-      <c r="G21" t="n">
-        <v>98.52438354492188</v>
-      </c>
-      <c r="H21" t="n">
-        <v>9.817700386047363</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9.127378463745117</v>
-      </c>
-      <c r="J21" t="n">
-        <v>87.302975880513</v>
-      </c>
-      <c r="K21" t="n">
-        <v>89.38104873518508</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.8773941993713379</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5309236645698547</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.8712657690048218</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.8837120532989502</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.8707269430160522</v>
-      </c>
-      <c r="G22" t="n">
-        <v>98.52438354492188</v>
-      </c>
-      <c r="H22" t="n">
-        <v>9.817700386047363</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9.127378463745117</v>
-      </c>
-      <c r="J22" t="n">
-        <v>87.35197193416457</v>
-      </c>
-      <c r="K22" t="n">
-        <v>91.0419418611053</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
